--- a/pred_ohlcv/54_21/2020-01-16 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 QTUM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-27279.88947487</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-32649.17527486999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-23915.60200000999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-27546.59860000999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-26546.59860000999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-26507.70960000999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-26902.12260000999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-26575.36480000999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-27122.19830000999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-25424.51470000999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-25591.61470000999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-26814.06939304999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-41020.50305951</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-44684.26951016999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-44765.77161016999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-43887.61481016999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-47108.61771016999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-46755.12561016999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-47091.18691016999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-47557.87291016999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-47276.68771016999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-49868.85261017</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-36938.04781017</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-36464.67131017</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-36637.84151017</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>153868.01437983</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>186353.62347983</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>176845.43122043</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>169334.80632043</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>178759.61749557</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>190812.56192043</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>207972.46202043</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>173699.03972043</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>189413.38994677</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>198224.45314677</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>207355.9750027001</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>205923.3005027001</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>198081.3725027001</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>212510.1426027001</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>207752.9359163601</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>201230.79591636</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>180081.3110820301</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>112111.1102820301</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>119689.7182820301</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>115165.3723820301</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>117352.6236710901</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>184965.6360229201</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>184965.6360229201</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>176678.6981229201</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>176668.9285603401</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>176613.5285603401</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>176559.2448603401</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>177420.0005603402</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>166407.4826456801</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>166327.5442456801</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>168089.1206456801</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>171235.0087454001</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>168795.9890454001</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>168609.3112454001</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>170395.1218454</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>166197.7955454001</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>175180.8769454</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>173574.2781454</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>173567.6781454</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>171992.8184454</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>172142.8184454</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>172590.3632454</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>172262.3632454</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>175493.5296454</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 QTUM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-27279.88947487</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-32649.17527486999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-23915.60200000999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-27546.59860000999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-26546.59860000999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-26507.70960000999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-25591.61470000999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-41020.50305951</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-44811.02075950999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-44811.02075950999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-47108.61771016999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-46755.12561016999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-47091.18691016999</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-47557.87291016999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-36938.04781017</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-36464.67131017</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-36637.84151017</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>153868.01437983</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>186353.62347983</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>176845.43122043</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>169334.80632043</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>178759.61749557</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>190812.56192043</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>207972.46202043</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>173699.03972043</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>199348.55050239</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>199348.55050239</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>189413.38994677</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>198224.45314677</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>207355.9750027001</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>205923.3005027001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>198081.3725027001</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>212510.1426027001</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>207752.9359163601</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>201230.79591636</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>112111.1102820301</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>119689.7182820301</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>115165.3723820301</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>117352.6236710901</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>184965.6360229201</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>184965.6360229201</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>176678.6981229201</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>176668.9285603401</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>176613.5285603401</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>176559.2448603401</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>177420.0005603402</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>166407.4826456801</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>166327.5442456801</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>168089.1206456801</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>171235.0087454001</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>168795.9890454001</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>168609.3112454001</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>170395.1218454</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>166197.7955454001</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>175180.8769454</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>173574.2781454</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>173567.6781454</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>171992.8184454</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>172142.8184454</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>172590.3632454</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>172262.3632454</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>175493.5296454</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
